--- a/hasil penelitian/hasil supervised learning.xlsx
+++ b/hasil penelitian/hasil supervised learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\kopra-supervised\hasil penelitian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EB29A1-4F33-4C35-BD66-2084A21ED388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602694BD-8967-4972-8839-5103F16675D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C5C377B5-31EC-4668-A465-B719EC5478AC}"/>
   </bookViews>
@@ -162,10 +162,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526593EE-617B-4CB1-BF5C-0533A47AB761}">
   <dimension ref="C4:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,54 +494,54 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -586,10 +586,10 @@
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -798,10 +798,10 @@
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1010,10 +1010,10 @@
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1222,10 +1222,10 @@
       </c>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1434,10 +1434,10 @@
       </c>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1646,54 +1646,54 @@
       </c>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5" t="s">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="5" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5" t="s">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="2">
         <v>1</v>
       </c>
@@ -1738,10 +1738,10 @@
       </c>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2006,10 +2006,10 @@
       </c>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2274,10 +2274,10 @@
       </c>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2543,24 +2543,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C35:D37"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C4:D6"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="E5:K5"/>
     <mergeCell ref="L5:R5"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C35:D37"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
